--- a/BDD_fluides.xlsx
+++ b/BDD_fluides.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amark\PycharmProjects\PipeHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A6AA7A-EB05-4242-B2F3-02D7DA88EFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A9C460-8C99-463F-A758-8B005FEC7F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="470" windowWidth="14400" windowHeight="8170" xr2:uid="{5BC660E9-F674-4BFC-9540-DFB699CAF7CF}"/>
+    <workbookView xWindow="0" yWindow="830" windowWidth="14400" windowHeight="8170" xr2:uid="{5BC660E9-F674-4BFC-9540-DFB699CAF7CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,13 @@
     <t>Coefficient de dilatation</t>
   </si>
   <si>
-    <t>Eau</t>
-  </si>
-  <si>
     <t>Masse volumique</t>
   </si>
   <si>
-    <t>Air</t>
+    <t>eau</t>
+  </si>
+  <si>
+    <t>air</t>
   </si>
 </sst>
 </file>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8FEB7E-87C3-4004-90DA-2B72AB6F5F5B}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>70</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>90</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>100</v>
